--- a/20241202_DBbackup.xlsx
+++ b/20241202_DBbackup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,274 +463,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>make 시나리오 테스트</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>노션 데이터베이스 백업 test</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>롯데카드 해지</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>책반납</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PPT 만들기</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>본페이지에 make연동</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>병원 예약 변경</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ppt 만들기</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>책빌리기</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>책 반납</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>함기옥 박사님께  분석 수정된 PPT 요청</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 모니터 나가면 전산실 연락</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>은행</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>책 대출</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>{'start': '2024-11-07', 'end': None, 'time_zone': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>김종환 박사님 공유</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>법정교육 이수</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>{'start': '2024-11-05', 'end': None, 'time_zone': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>교육자료 PPT 제작</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>{'start': '2024-11-04', 'end': None, 'time_zone': None}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>RNA seq 분석</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>SOP 작성</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>make 시나리오 테스트</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/20241202_DBbackup.xlsx
+++ b/20241202_DBbackup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,15 +463,274 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>make 시나리오 테스트</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>노션 데이터베이스 백업 test</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>롯데카드 해지</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>책반납</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PPT 만들기</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>본페이지에 make연동</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>병원 예약 변경</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ppt 만들기</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>책빌리기</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>책 반납</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>함기옥 박사님께  분석 수정된 PPT 요청</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 모니터 나가면 전산실 연락</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>책 대출</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>{'start': '2024-11-07', 'end': None, 'time_zone': None}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>김종환 박사님 공유</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>법정교육 이수</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>{'start': '2024-11-05', 'end': None, 'time_zone': None}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>교육자료 PPT 제작</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>{'start': '2024-11-04', 'end': None, 'time_zone': None}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>RNA seq 분석</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SOP 작성</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>make 시나리오 테스트</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
